--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-43.xlsx
@@ -47,6 +47,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -62,9 +71,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
   </si>
   <si>
@@ -207,9 +213,6 @@
   </si>
   <si>
     <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
   </si>
   <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
@@ -1328,11 +1331,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>34</v>
+        <v>-40</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1340,7 +1343,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1348,7 +1351,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1366,7 +1369,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1374,17 +1377,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1406,11 +1409,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1418,7 +1421,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1426,17 +1429,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1444,7 +1447,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1452,17 +1455,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1478,17 +1481,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>420</v>
+        <v>47</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1496,7 +1499,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1504,17 +1507,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>152</v>
+        <v>420</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1536,11 +1539,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1556,17 +1559,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1574,7 +1577,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1582,17 +1585,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>144.06</v>
+        <v>33</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1600,7 +1603,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1608,17 +1611,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>522.5</v>
+        <v>144.06</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1626,7 +1629,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1634,17 +1637,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>86</v>
+        <v>522.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1652,7 +1655,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1660,17 +1663,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>118.8</v>
+        <v>86</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1692,11 +1695,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>86</v>
+        <v>118.8</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1712,17 +1715,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1730,7 +1733,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1738,17 +1741,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1756,7 +1759,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1764,17 +1767,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1790,17 +1793,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1808,7 +1811,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1816,17 +1819,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1834,7 +1837,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1842,17 +1845,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,7 +1863,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1868,17 +1871,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1886,7 +1889,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1894,17 +1897,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1920,17 +1923,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1938,7 +1941,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1946,17 +1949,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1978,11 +1981,11 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,17 +2001,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -2016,7 +2019,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2024,17 +2027,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>47.5</v>
+        <v>98</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -2042,7 +2045,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2050,17 +2053,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -2068,7 +2071,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2076,17 +2079,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -2094,7 +2097,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2102,17 +2105,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,11 +2137,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2146,7 +2149,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2154,17 +2157,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2172,7 +2175,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2180,17 +2183,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2212,11 +2215,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2232,17 +2235,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2258,17 +2261,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2284,17 +2287,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2310,17 +2313,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2336,17 +2339,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2362,17 +2365,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2380,7 +2383,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2388,17 +2391,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2406,7 +2409,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2414,13 +2417,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2432,7 +2435,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2440,17 +2443,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2466,17 +2469,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2492,17 +2495,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2518,17 +2521,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2544,13 +2547,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>55.670000000000002</v>
+        <v>28</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2570,17 +2573,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>45</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2596,17 +2599,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2622,17 +2625,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2640,7 +2643,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2648,17 +2651,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2674,17 +2677,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2700,17 +2703,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>15.300000000000001</v>
+        <v>56</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2732,11 +2735,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2752,17 +2755,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>85.560000000000002</v>
+        <v>65</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2778,17 +2781,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2804,17 +2807,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>50.960000000000001</v>
+        <v>39</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2830,17 +2833,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>65</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2856,17 +2859,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2874,7 +2877,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2882,17 +2885,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2908,17 +2911,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2934,17 +2937,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>69.900000000000006</v>
+        <v>22</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2960,17 +2963,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>32</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2978,7 +2981,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2986,17 +2989,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -3012,17 +3015,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>27.329999999999998</v>
+        <v>75</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3038,17 +3041,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>218.69999999999999</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -3064,17 +3067,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>0</v>
+        <v>218.69999999999999</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -3090,17 +3093,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -3116,17 +3119,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3142,17 +3145,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3168,17 +3171,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3194,17 +3197,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3220,17 +3223,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3246,17 +3249,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3264,7 +3267,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3272,7 +3275,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -3282,7 +3285,7 @@
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3298,17 +3301,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3324,17 +3327,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>62.549999999999997</v>
+        <v>24</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3356,11 +3359,11 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>240</v>
+        <v>62.549999999999997</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3382,11 +3385,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3402,17 +3405,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3420,7 +3423,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3428,17 +3431,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3454,17 +3457,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3480,17 +3483,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3506,17 +3509,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3532,17 +3535,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3550,7 +3553,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3558,17 +3561,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3584,17 +3587,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3616,11 +3619,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3636,17 +3639,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3662,17 +3665,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3688,17 +3691,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>56.399999999999999</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3706,7 +3709,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3714,13 +3717,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3740,17 +3743,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3766,17 +3769,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3792,17 +3795,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3818,17 +3821,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>65.75</v>
+        <v>103</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3844,17 +3847,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>15</v>
+        <v>65.75</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3870,17 +3873,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3902,11 +3905,11 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3922,17 +3925,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3948,17 +3951,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>249.47999999999999</v>
+        <v>18</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3980,11 +3983,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>130</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -4000,17 +4003,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -4018,7 +4021,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4026,17 +4029,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4052,17 +4055,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4078,17 +4081,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4104,17 +4107,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4136,11 +4139,11 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4156,17 +4159,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4182,17 +4185,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4208,17 +4211,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4234,17 +4237,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4260,17 +4263,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4286,17 +4289,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4312,17 +4315,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4338,17 +4341,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4364,17 +4367,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>9.9499999999999993</v>
+        <v>35</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4382,7 +4385,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4390,17 +4393,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>34</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4416,17 +4419,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4442,17 +4445,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4468,17 +4471,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4494,17 +4497,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>58.200000000000003</v>
+        <v>25</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4512,7 +4515,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4520,17 +4523,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>25</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4546,17 +4549,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4572,17 +4575,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4608,7 +4611,7 @@
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4624,17 +4627,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4650,17 +4653,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4676,17 +4679,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4702,17 +4705,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4720,7 +4723,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4728,17 +4731,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
-        <v>179</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4746,7 +4749,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4754,17 +4757,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
-        <v>29</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4780,17 +4783,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4798,7 +4801,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4806,17 +4809,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4832,17 +4835,17 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -4858,17 +4861,17 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4890,11 +4893,11 @@
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4910,17 +4913,17 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" ht="25.5" customHeight="1">
@@ -4936,17 +4939,17 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" ht="24.75" customHeight="1">
@@ -4954,7 +4957,7 @@
         <v>143</v>
       </c>
       <c t="s" r="B146" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -4962,17 +4965,17 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -4980,7 +4983,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4988,17 +4991,17 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" ht="25.5" customHeight="1">
@@ -5014,17 +5017,17 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" ht="24.75" customHeight="1">
@@ -5046,11 +5049,11 @@
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" ht="25.5" customHeight="1">
@@ -5066,17 +5069,17 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" ht="24.75" customHeight="1">
@@ -5092,17 +5095,17 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
@@ -5118,17 +5121,17 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" ht="25.5" customHeight="1">
@@ -5144,7 +5147,7 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
@@ -5154,7 +5157,7 @@
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" ht="24.75" customHeight="1">
@@ -5170,17 +5173,17 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" ht="25.5" customHeight="1">
@@ -5196,17 +5199,17 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" ht="24.75" customHeight="1">
@@ -5214,7 +5217,7 @@
         <v>153</v>
       </c>
       <c t="s" r="B156" s="7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5222,17 +5225,17 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
@@ -5240,7 +5243,7 @@
         <v>154</v>
       </c>
       <c t="s" r="B157" s="7">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -5248,17 +5251,17 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" ht="25.5" customHeight="1">
@@ -5274,17 +5277,17 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="9">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="M158" s="9"/>
       <c t="s" r="N158" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" ht="24.75" customHeight="1">
@@ -5300,17 +5303,17 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" ht="25.5" customHeight="1">
@@ -5326,17 +5329,17 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" ht="24.75" customHeight="1">
@@ -5352,17 +5355,17 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>19.199999999999999</v>
+        <v>60</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" ht="25.5" customHeight="1">
@@ -5378,17 +5381,17 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>75</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" ht="25.5" customHeight="1">
@@ -5404,17 +5407,17 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" ht="24.75" customHeight="1">
@@ -5430,17 +5433,17 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c t="s" r="H164" s="8">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M164" s="9"/>
       <c t="s" r="N164" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" ht="25.5" customHeight="1">
@@ -5456,17 +5459,17 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c t="s" r="H165" s="8">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M165" s="9"/>
       <c t="s" r="N165" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" ht="24.75" customHeight="1">
@@ -5482,17 +5485,17 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c t="s" r="H166" s="8">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="9">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="M166" s="9"/>
       <c t="s" r="N166" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" ht="25.5" customHeight="1">
@@ -5508,17 +5511,17 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c t="s" r="H167" s="8">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="9">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="M167" s="9"/>
       <c t="s" r="N167" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" ht="25.5" customHeight="1">
@@ -5526,7 +5529,7 @@
         <v>165</v>
       </c>
       <c t="s" r="B168" s="7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -5534,17 +5537,17 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c t="s" r="H168" s="8">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M168" s="9"/>
       <c t="s" r="N168" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" ht="24.75" customHeight="1">
@@ -5560,17 +5563,17 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c t="s" r="H169" s="8">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M169" s="9"/>
       <c t="s" r="N169" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" ht="25.5" customHeight="1">
@@ -5586,17 +5589,17 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c t="s" r="H170" s="8">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M170" s="9"/>
       <c t="s" r="N170" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" ht="24.75" customHeight="1">
@@ -5612,7 +5615,7 @@
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c t="s" r="H171" s="8">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
@@ -5622,7 +5625,7 @@
       </c>
       <c r="M171" s="9"/>
       <c t="s" r="N171" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" ht="25.5" customHeight="1">
@@ -5638,17 +5641,17 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c t="s" r="H172" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M172" s="9"/>
       <c t="s" r="N172" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" ht="25.5" customHeight="1">
@@ -5664,17 +5667,17 @@
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c t="s" r="H173" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M173" s="9"/>
       <c t="s" r="N173" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" ht="24.75" customHeight="1">
@@ -5690,51 +5693,77 @@
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c t="s" r="H174" s="8">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M174" s="9"/>
       <c t="s" r="N174" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" ht="26.25" customHeight="1">
-      <c r="K175" s="10">
-        <v>10979.31</v>
-      </c>
-      <c r="L175" s="10"/>
-      <c r="M175" s="10"/>
-      <c r="N175" s="10"/>
-    </row>
-    <row r="176" ht="16.5" customHeight="1">
-      <c t="s" r="A176" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" ht="25.5" customHeight="1">
+      <c r="A175" s="6">
+        <v>172</v>
+      </c>
+      <c t="s" r="B175" s="7">
         <v>223</v>
       </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c t="s" r="F176" s="12">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c t="s" r="H175" s="8">
+        <v>74</v>
+      </c>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="9">
+        <v>30</v>
+      </c>
+      <c r="M175" s="9"/>
+      <c t="s" r="N175" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" ht="25.5" customHeight="1">
+      <c r="K176" s="10">
+        <v>10939.31</v>
+      </c>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+    </row>
+    <row r="177" ht="16.5" customHeight="1">
+      <c t="s" r="A177" s="11">
         <v>224</v>
       </c>
-      <c r="G176" s="12"/>
-      <c r="H176" s="13"/>
-      <c t="s" r="I176" s="14">
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c t="s" r="F177" s="12">
         <v>225</v>
       </c>
-      <c r="J176" s="14"/>
-      <c r="K176" s="14"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="14"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="13"/>
+      <c t="s" r="I177" s="14">
+        <v>226</v>
+      </c>
+      <c r="J177" s="14"/>
+      <c r="K177" s="14"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="524">
+  <mergeCells count="527">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -6255,10 +6284,13 @@
     <mergeCell ref="B174:G174"/>
     <mergeCell ref="H174:K174"/>
     <mergeCell ref="L174:M174"/>
-    <mergeCell ref="K175:N175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="I176:N176"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="H175:K175"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="K176:N176"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="I177:N177"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
